--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>2118.214118627332</v>
+        <v>8052.681343116555</v>
       </c>
       <c r="R2">
-        <v>2118.214118627332</v>
+        <v>72474.13208804899</v>
       </c>
       <c r="S2">
-        <v>0.04680622432223865</v>
+        <v>0.06281656805163208</v>
       </c>
       <c r="T2">
-        <v>0.04680622432223865</v>
+        <v>0.0628165680516321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>608.7088696759346</v>
+        <v>658.1362743231846</v>
       </c>
       <c r="R3">
-        <v>608.7088696759346</v>
+        <v>5923.226468908661</v>
       </c>
       <c r="S3">
-        <v>0.01345065338316761</v>
+        <v>0.005133924999852255</v>
       </c>
       <c r="T3">
-        <v>0.01345065338316761</v>
+        <v>0.005133924999852257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>353.0993857471805</v>
+        <v>386.040783306926</v>
       </c>
       <c r="R4">
-        <v>353.0993857471805</v>
+        <v>3474.367049762334</v>
       </c>
       <c r="S4">
-        <v>0.00780244495208887</v>
+        <v>0.003011389138852937</v>
       </c>
       <c r="T4">
-        <v>0.00780244495208887</v>
+        <v>0.003011389138852938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>28314.18900654749</v>
+        <v>102916.0565084721</v>
       </c>
       <c r="R5">
-        <v>28314.18900654749</v>
+        <v>926244.5085762488</v>
       </c>
       <c r="S5">
-        <v>0.6256592619642944</v>
+        <v>0.8028174954167535</v>
       </c>
       <c r="T5">
-        <v>0.6256592619642944</v>
+        <v>0.8028174954167536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>8136.61746204164</v>
+        <v>8411.209522952036</v>
       </c>
       <c r="R6">
-        <v>8136.61746204164</v>
+        <v>75700.88570656831</v>
       </c>
       <c r="S6">
-        <v>0.1797950163788748</v>
+        <v>0.06561333956753401</v>
       </c>
       <c r="T6">
-        <v>0.1797950163788748</v>
+        <v>0.06561333956753403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>4719.882970386543</v>
+        <v>4933.734910962486</v>
       </c>
       <c r="R7">
-        <v>4719.882970386543</v>
+        <v>44403.61419866237</v>
       </c>
       <c r="S7">
-        <v>0.1042953585966038</v>
+        <v>0.03848659615074777</v>
       </c>
       <c r="T7">
-        <v>0.1042953585966038</v>
+        <v>0.03848659615074778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>690.6529958378865</v>
+        <v>2510.232752901173</v>
       </c>
       <c r="R8">
-        <v>690.6529958378865</v>
+        <v>22592.09477611055</v>
       </c>
       <c r="S8">
-        <v>0.01526137455497797</v>
+        <v>0.01958157784088166</v>
       </c>
       <c r="T8">
-        <v>0.01526137455497797</v>
+        <v>0.01958157784088166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>198.4721944480353</v>
+        <v>205.1584014423476</v>
       </c>
       <c r="R9">
-        <v>198.4721944480353</v>
+        <v>1846.425612981128</v>
       </c>
       <c r="S9">
-        <v>0.004385644479171794</v>
+        <v>0.001600379567556514</v>
       </c>
       <c r="T9">
-        <v>0.004385644479171794</v>
+        <v>0.001600379567556515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>115.1296020785861</v>
+        <v>120.339074268848</v>
       </c>
       <c r="R10">
-        <v>115.1296020785861</v>
+        <v>1083.051668419632</v>
       </c>
       <c r="S10">
-        <v>0.002544021368582165</v>
+        <v>0.000938729266189229</v>
       </c>
       <c r="T10">
-        <v>0.002544021368582165</v>
+        <v>0.0009387292661892295</v>
       </c>
     </row>
   </sheetData>
